--- a/MarsFramework/ExcelData/TestDataShareSkill.xlsx
+++ b/MarsFramework/ExcelData/TestDataShareSkill.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MVP Studio\MARsCompetitionTask\marsframework-master\MarsFramework\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C2A500F-BCAD-42C7-A07B-EC248AE286E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51D9D521-C487-4BF8-9466-FA3D5E970A52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1428" yWindow="1536" windowWidth="21612" windowHeight="11112" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SignUp" sheetId="3" r:id="rId1"/>
@@ -63,9 +63,6 @@
     <t>Active</t>
   </si>
   <si>
-    <t>Testing</t>
-  </si>
-  <si>
     <t>Selenium</t>
   </si>
   <si>
@@ -133,6 +130,9 @@
   </si>
   <si>
     <t>http://localhost:5000/</t>
+  </si>
+  <si>
+    <t>#Testing</t>
   </si>
 </sst>
 </file>
@@ -569,13 +569,13 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2" t="s">
         <v>33</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" s="2" t="s">
         <v>34</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>35</v>
       </c>
       <c r="D2">
         <v>123123</v>
@@ -596,7 +596,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -618,10 +618,10 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C2" s="2">
         <v>123123</v>
@@ -642,8 +642,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:Q2"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -670,37 +670,37 @@
         <v>9</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>10</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="J1" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="M1" s="1" t="s">
-        <v>27</v>
-      </c>
       <c r="N1" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="O1" s="1" t="s">
         <v>11</v>
@@ -712,34 +712,34 @@
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" t="s">
         <v>14</v>
       </c>
-      <c r="B2" t="s">
-        <v>15</v>
-      </c>
       <c r="C2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F2" t="s">
         <v>19</v>
       </c>
-      <c r="D2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F2" t="s">
-        <v>20</v>
-      </c>
       <c r="G2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H2" s="4">
-        <v>43567</v>
+        <v>44632</v>
       </c>
       <c r="I2" s="3">
-        <v>43597</v>
+        <v>44693</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K2" s="5">
         <v>0.75</v>
@@ -748,16 +748,16 @@
         <v>0.83333333333333337</v>
       </c>
       <c r="M2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="N2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="O2" t="s">
         <v>11</v>
       </c>
       <c r="P2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>

--- a/MarsFramework/ExcelData/TestDataShareSkill.xlsx
+++ b/MarsFramework/ExcelData/TestDataShareSkill.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MVP Studio\MARsCompetitionTask\marsframework-master\MarsFramework\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51D9D521-C487-4BF8-9466-FA3D5E970A52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3A42FFD-6D2D-493A-A15E-A2C3B1A76CAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,13 +16,26 @@
     <sheet name="SignUp" sheetId="3" r:id="rId1"/>
     <sheet name="SignIn" sheetId="1" r:id="rId2"/>
     <sheet name="ShareSkill" sheetId="2" r:id="rId3"/>
+    <sheet name="ManageListings" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="44">
   <si>
     <t>Url</t>
   </si>
@@ -108,18 +121,12 @@
     <t>On-site</t>
   </si>
   <si>
-    <t>Performance Testing</t>
-  </si>
-  <si>
     <t>Hidden</t>
   </si>
   <si>
     <t>Selectday</t>
   </si>
   <si>
-    <t>Mon</t>
-  </si>
-  <si>
     <t>Harsha</t>
   </si>
   <si>
@@ -133,6 +140,33 @@
   </si>
   <si>
     <t>#Testing</t>
+  </si>
+  <si>
+    <t>Mon,Tue</t>
+  </si>
+  <si>
+    <t>#Performance Testing</t>
+  </si>
+  <si>
+    <t>8:00PM</t>
+  </si>
+  <si>
+    <t>10:00AM</t>
+  </si>
+  <si>
+    <t>Deleteaction</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>Save Or Cancel</t>
+  </si>
+  <si>
+    <t>Save</t>
+  </si>
+  <si>
+    <t>Postman</t>
   </si>
 </sst>
 </file>
@@ -141,7 +175,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="dd/mm/yyyy;@"/>
-    <numFmt numFmtId="165" formatCode="hh:mm:ss;@"/>
+    <numFmt numFmtId="165" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -569,13 +603,13 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>32</v>
-      </c>
-      <c r="B2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>34</v>
       </c>
       <c r="D2">
         <v>123123</v>
@@ -618,10 +652,10 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C2" s="2">
         <v>123123</v>
@@ -643,7 +677,7 @@
   <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -657,6 +691,7 @@
     <col min="14" max="14" width="19.5546875" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="18.44140625" customWidth="1"/>
     <col min="16" max="16" width="10.6640625" customWidth="1"/>
+    <col min="17" max="17" width="13.88671875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
@@ -688,7 +723,7 @@
         <v>23</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>24</v>
@@ -708,11 +743,13 @@
       <c r="P1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="Q1" s="1"/>
+      <c r="Q1" s="1" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>13</v>
+        <v>43</v>
       </c>
       <c r="B2" t="s">
         <v>14</v>
@@ -724,7 +761,7 @@
         <v>17</v>
       </c>
       <c r="E2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F2" t="s">
         <v>19</v>
@@ -733,35 +770,74 @@
         <v>27</v>
       </c>
       <c r="H2" s="4">
-        <v>44632</v>
+        <f ca="1">TODAY()</f>
+        <v>44629</v>
       </c>
       <c r="I2" s="3">
-        <v>44693</v>
+        <v>44969</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="K2" s="5">
-        <v>0.75</v>
-      </c>
-      <c r="L2" s="5">
-        <v>0.83333333333333337</v>
+        <v>35</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="L2" s="5" t="s">
+        <v>37</v>
       </c>
       <c r="M2" t="s">
         <v>15</v>
       </c>
       <c r="N2" t="s">
+        <v>36</v>
+      </c>
+      <c r="O2">
+        <v>3</v>
+      </c>
+      <c r="P2" t="s">
         <v>28</v>
       </c>
-      <c r="O2" t="s">
-        <v>11</v>
-      </c>
-      <c r="P2" t="s">
-        <v>29</v>
+      <c r="Q2" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EB4FC85-7461-4AAA-9357-964213B462C8}">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="2" width="14.5546875" customWidth="1"/>
+    <col min="3" max="3" width="16.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/MarsFramework/ExcelData/TestDataShareSkill.xlsx
+++ b/MarsFramework/ExcelData/TestDataShareSkill.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MVP Studio\MARsCompetitionTask\marsframework-master\MarsFramework\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3A42FFD-6D2D-493A-A15E-A2C3B1A76CAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78F63DBC-5544-47EC-9092-3586BF515138}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SignUp" sheetId="3" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="43">
   <si>
     <t>Url</t>
   </si>
@@ -157,16 +157,13 @@
     <t>Deleteaction</t>
   </si>
   <si>
-    <t>Yes</t>
-  </si>
-  <si>
     <t>Save Or Cancel</t>
   </si>
   <si>
     <t>Save</t>
   </si>
   <si>
-    <t>Postman</t>
+    <t>No</t>
   </si>
 </sst>
 </file>
@@ -676,8 +673,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:Q2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -744,12 +741,12 @@
         <v>12</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="B2" t="s">
         <v>14</v>
@@ -771,7 +768,7 @@
       </c>
       <c r="H2" s="4">
         <f ca="1">TODAY()</f>
-        <v>44629</v>
+        <v>44630</v>
       </c>
       <c r="I2" s="3">
         <v>44969</v>
@@ -798,7 +795,7 @@
         <v>28</v>
       </c>
       <c r="Q2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -809,10 +806,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EB4FC85-7461-4AAA-9357-964213B462C8}">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -821,20 +818,20 @@
     <col min="3" max="3" width="16.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>8</v>
       </c>
-      <c r="C1" t="s">
+      <c r="B1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>13</v>
       </c>
-      <c r="C2" t="s">
-        <v>40</v>
+      <c r="B2" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>

--- a/MarsFramework/ExcelData/TestDataShareSkill.xlsx
+++ b/MarsFramework/ExcelData/TestDataShareSkill.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MVP Studio\MARsCompetitionTask\marsframework-master\MarsFramework\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78F63DBC-5544-47EC-9092-3586BF515138}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7FB8C13-592B-4646-B05C-C5975B406F94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -163,7 +163,7 @@
     <t>Save</t>
   </si>
   <si>
-    <t>No</t>
+    <t>Yes</t>
   </si>
 </sst>
 </file>
@@ -809,7 +809,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
